--- a/Test Data Driven/AI-Generated/Common/selectStorageColorAndProceedToCheckout.xlsx
+++ b/Test Data Driven/AI-Generated/Common/selectStorageColorAndProceedToCheckout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,40 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>\31 52174-case-656</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>\31 52174-case-656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/selectStorageColorAndProceedToCheckout.xlsx
+++ b/Test Data Driven/AI-Generated/Common/selectStorageColorAndProceedToCheckout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,40 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>\31 52174-case-656</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>\31 52174-case-656</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
